--- a/code/e_result.xlsx
+++ b/code/e_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TUD\QML\QML assignment1\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B686EDD-4849-49DB-9BF1-4FE974D36913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD23EEE9-D112-4E4D-ACE7-78BD8EBAAD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1212" yWindow="12" windowWidth="21600" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4872" yWindow="588" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
   <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -400,7 +400,7 @@
         <v>0.03</v>
       </c>
       <c r="C1" s="2">
-        <v>2.9899999999999999E-2</v>
+        <v>2.9600000000000001E-2</v>
       </c>
       <c r="D1" s="2">
         <v>2.9000000000000001E-2</v>
